--- a/Bases_de_Dados_(2022-2023)/Italy Coppa Italia_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Coppa Italia_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK41"/>
+  <dimension ref="A1:BK43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT27" t="n">
         <v>2</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT30" t="n">
         <v>2</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT37" t="n">
         <v>2</v>
@@ -8208,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT38" t="n">
         <v>1.5</v>
@@ -8617,7 +8617,7 @@
         <v>1.5</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU40" t="n">
         <v>2.49</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT41" t="n">
         <v>1.5</v>
@@ -8872,6 +8872,412 @@
       </c>
       <c r="BK41" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5298674</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Italy Coppa Italia</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45020.66666666666</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>7</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5289705</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Italy Coppa Italia</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45021.66666666666</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['20', '75']</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
